--- a/hiqu/HR/Performance Evaluation/October 2024/QA/Kashif Hayat.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/QA/Kashif Hayat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD0EDE-6EDE-4529-9141-AB3CF48246D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B3341-59F8-455A-9D02-AF21B83197FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>Employee Name</t>
   </si>
@@ -349,6 +349,39 @@
   </si>
   <si>
     <t>Analysis of production issues reported by support team</t>
+  </si>
+  <si>
+    <t>Google Drive integration. (Setup and Integration development)</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP WORKFLOW                     </t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Cient UAT Upgrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXELUS 2024.2                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR-0013                         </t>
+  </si>
+  <si>
+    <t>Admin &amp; Misc.</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Requirement Writ</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -725,6 +758,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -787,12 +826,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2805,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -2817,18 +2850,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
@@ -2836,11 +2869,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2848,11 +2881,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -2860,11 +2893,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2872,11 +2905,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -2884,11 +2917,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2896,12 +2929,12 @@
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="38">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.273972602739726</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+        <v>1.3041095890410959</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -2909,11 +2942,11 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3192,13 +3225,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
@@ -3215,12 +3248,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
@@ -3240,13 +3273,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3337,13 +3370,13 @@
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -3423,13 +3456,13 @@
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
@@ -3887,10 +3920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:W33"/>
+  <dimension ref="B2:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,82 +3948,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -3999,35 +4032,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -4050,8 +4083,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
@@ -4117,18 +4150,20 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>44</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="28">
         <f>D9+E9+F9+G9+H9+I9+J9+K9+N9</f>
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="6"/>
@@ -4150,18 +4185,20 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>33</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="28">
         <f>D10+E10+F10+G10+H10+I10+J10+K10+N10</f>
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="6"/>
@@ -4171,14 +4208,16 @@
       <c r="W10" s="6"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -4188,7 +4227,10 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="28">
+        <f>D11+E11+F11+G11+H11+I11+J11+K11+N11</f>
+        <v>1</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="6"/>
       <c r="T11" s="2"/>
@@ -4199,12 +4241,10 @@
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>15</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -4214,13 +4254,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="28">
-        <f t="shared" ref="Q12:Q15" si="0">D12+E12+F12+G12+H12+I12+J12+K12+N12</f>
-        <v>45</v>
+        <f>D12+E12+F12+G12+H12+I12+J12+K12+N12</f>
+        <v>4</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
@@ -4232,26 +4272,26 @@
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>15</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>29</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="28">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>D13+E13+F13+G13+H13+I13+J13+K13+N13</f>
+        <v>29</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="6"/>
@@ -4261,10 +4301,10 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4275,15 +4315,10 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2">
-        <v>52</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="28">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
+      <c r="Q14" s="28"/>
       <c r="R14" s="2"/>
       <c r="S14" s="6"/>
       <c r="T14" s="2"/>
@@ -4294,10 +4329,12 @@
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4306,13 +4343,11 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>4</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q15:Q18" si="0">D15+E15+F15+G15+H15+I15+J15+K15+N15</f>
         <v>4</v>
       </c>
       <c r="R15" s="2"/>
@@ -4323,15 +4358,17 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>15</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -4340,7 +4377,10 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6"/>
       <c r="T16" s="2"/>
@@ -4351,28 +4391,26 @@
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="28">
-        <f t="shared" ref="Q17:Q21" si="1">D17+E17+F17+G17+H17+I17+J17+K17+N17</f>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6"/>
@@ -4384,28 +4422,28 @@
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
+      <c r="H18" s="2">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="28">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="6"/>
@@ -4415,29 +4453,24 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="Q19" s="28"/>
       <c r="R19" s="2"/>
       <c r="S19" s="6"/>
       <c r="T19" s="2"/>
@@ -4446,28 +4479,30 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="28">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="Q20:Q24" si="1">D20+E20+F20+G20+H20+I20+J20+K20+N20</f>
+        <v>46</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="6"/>
@@ -4479,26 +4514,28 @@
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="28">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="6"/>
@@ -4508,24 +4545,29 @@
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="6"/>
       <c r="T22" s="2"/>
@@ -4534,30 +4576,28 @@
       <c r="W22" s="6"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>11</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="28">
-        <f t="shared" ref="Q23:Q27" si="2">D23+E23+F23+G23+H23+I23+J23+K23+N23</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="6"/>
@@ -4569,7 +4609,7 @@
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4582,13 +4622,13 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="28">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="6"/>
@@ -4598,14 +4638,12 @@
       <c r="W24" s="6"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -4617,10 +4655,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="28">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="Q25" s="28"/>
       <c r="R25" s="2"/>
       <c r="S25" s="6"/>
       <c r="T25" s="2"/>
@@ -4631,13 +4666,15 @@
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>11</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4649,8 +4686,8 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="28">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" ref="Q26:Q30" si="2">D26+E26+F26+G26+H26+I26+J26+K26+N26</f>
+        <v>19</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="6"/>
@@ -4662,7 +4699,7 @@
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4675,13 +4712,13 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="6"/>
@@ -4692,9 +4729,13 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4706,7 +4747,10 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="28"/>
+      <c r="Q28" s="28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="6"/>
       <c r="T28" s="2"/>
@@ -4716,7 +4760,9 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4727,10 +4773,15 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2">
+        <v>8</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="28"/>
+      <c r="Q29" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="6"/>
       <c r="T29" s="2"/>
@@ -4740,7 +4791,9 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4751,10 +4804,15 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="2">
+        <v>9</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="28"/>
+      <c r="Q30" s="28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="R30" s="2"/>
       <c r="S30" s="6"/>
       <c r="T30" s="2"/>
@@ -4786,81 +4844,153 @@
       <c r="V31" s="2"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11">
-        <f t="shared" ref="D32:K32" si="3">SUM(D8:D30)</f>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
+        <f t="shared" ref="D35:K35" si="3">SUM(D8:D33)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E35" s="11">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="F32" s="11">
+        <v>24</v>
+      </c>
+      <c r="F35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G35" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="3"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11">
+        <f>SUM(M8:M34)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11">
-        <f>SUM(M8:M31)</f>
+      <c r="N35" s="11">
+        <f>SUM(N8:N34)</f>
+        <v>279</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" ref="O35" si="4">IF(M35=0,0,(N35-M35)/M35)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="11">
-        <f>SUM(N8:N31)</f>
-        <v>234</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" ref="O32" si="4">IF(M32=0,0,(N32-M32)/M32)</f>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11">
+        <f>SUM(Q8:Q34)</f>
+        <v>364</v>
+      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11">
+        <f>SUM(T8:T34)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11">
-        <f>SUM(Q8:Q31)</f>
-        <v>313</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11">
-        <f>SUM(T8:T31)</f>
+      <c r="U35" s="11">
+        <f>SUM(U8:U34)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="11">
-        <f>SUM(U8:U31)</f>
+      <c r="V35" s="11">
+        <f>SUM(V8:V34)</f>
         <v>0</v>
       </c>
-      <c r="V32" s="11">
-        <f>SUM(V8:V31)</f>
+      <c r="W35" s="11">
+        <f>SUM(W8:W34)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="11">
-        <f>SUM(W8:W31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="36" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:W2"/>
@@ -4878,10 +5008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44333CF5-12CD-4F68-96BC-A1A09EAF912B}">
-  <dimension ref="B2:W26"/>
+  <dimension ref="B2:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,82 +5036,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4990,35 +5120,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="52" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -5041,8 +5171,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
@@ -5050,7 +5180,7 @@
         <v>11</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="25" t="s">
         <v>87</v>
@@ -5100,7 +5230,7 @@
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5108,7 +5238,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -5118,8 +5248,8 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="28">
-        <f t="shared" ref="Q9:Q14" si="0">D9+E9+F9+H9+I9+J9+K9+N9</f>
-        <v>9</v>
+        <f t="shared" ref="Q9:Q25" si="0">D9+E9+F9+H9+I9+J9+K9+N9</f>
+        <v>39</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="6"/>
@@ -5131,18 +5261,16 @@
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>16</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -5152,7 +5280,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="6"/>
@@ -5194,7 +5322,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5204,14 +5332,12 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2">
-        <v>30</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="28">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
@@ -5267,13 +5393,13 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="28">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="6"/>
@@ -5283,10 +5409,10 @@
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5297,12 +5423,13 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>4</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6"/>
       <c r="T15" s="2"/>
@@ -5312,7 +5439,9 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5323,10 +5452,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2">
+        <v>13</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6"/>
       <c r="T16" s="2"/>
@@ -5336,7 +5470,9 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -5347,10 +5483,15 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2">
+        <v>4</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6"/>
       <c r="T17" s="2"/>
@@ -5359,7 +5500,9 @@
       <c r="W17" s="6"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5374,7 +5517,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="28"/>
+      <c r="Q18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="6"/>
       <c r="T18" s="2"/>
@@ -5384,7 +5530,9 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5395,10 +5543,15 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="6"/>
       <c r="T19" s="2"/>
@@ -5407,7 +5560,9 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5422,7 +5577,10 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="6"/>
       <c r="T20" s="2"/>
@@ -5432,9 +5590,13 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -5446,7 +5608,10 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="6"/>
       <c r="T21" s="2"/>
@@ -5456,9 +5621,13 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5470,7 +5639,10 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="6"/>
       <c r="T22" s="2"/>
@@ -5480,11 +5652,15 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -5494,7 +5670,10 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="6"/>
       <c r="T23" s="2"/>
@@ -5503,7 +5682,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5518,89 +5697,143 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="6"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
-        <f t="shared" ref="D25:K25" si="1">SUM(D8:D23)</f>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
+        <f>SUM(D8:D25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="1"/>
+      <c r="E27" s="11">
+        <f>SUM(E8:E25)</f>
+        <v>18</v>
+      </c>
+      <c r="F27" s="11">
+        <f>SUM(F8:F25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="11">
-        <f t="shared" si="1"/>
+      <c r="G27" s="11">
+        <f>SUM(G8:G25)</f>
+        <v>15</v>
+      </c>
+      <c r="H27" s="11">
+        <f>SUM(H8:H25)</f>
+        <v>15</v>
+      </c>
+      <c r="I27" s="11">
+        <f>SUM(I8:I25)</f>
+        <v>39</v>
+      </c>
+      <c r="J27" s="11">
+        <f>SUM(J8:J25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="1"/>
+      <c r="K27" s="11">
+        <f>SUM(K8:K25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="11">
-        <f t="shared" si="1"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11">
+        <f>SUM(M8:M26)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11">
-        <f>SUM(M8:M24)</f>
+      <c r="N27" s="11">
+        <f>SUM(N8:N26)</f>
+        <v>68.5</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" ref="O27" si="1">IF(M27=0,0,(N27-M27)/M27)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="11">
-        <f>SUM(N8:N24)</f>
-        <v>86</v>
-      </c>
-      <c r="O25" s="12">
-        <f t="shared" ref="O25" si="2">IF(M25=0,0,(N25-M25)/M25)</f>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11">
+        <f>SUM(Q8:Q26)</f>
+        <v>140.5</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11">
+        <f>SUM(T8:T26)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11">
-        <f>SUM(Q8:Q24)</f>
-        <v>140</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11">
-        <f>SUM(T8:T24)</f>
+      <c r="U27" s="11">
+        <f>SUM(U8:U26)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="11">
-        <f>SUM(U8:U24)</f>
+      <c r="V27" s="11">
+        <f>SUM(V8:V26)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="11">
-        <f>SUM(V8:V24)</f>
+      <c r="W27" s="11">
+        <f>SUM(W8:W26)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="11">
-        <f>SUM(W8:W24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="28" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:W2"/>
@@ -5620,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE3F59F-986B-4B98-815D-6AEB58684362}">
   <dimension ref="B2:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,82 +5879,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -5730,35 +5963,35 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="52" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="Q6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -5781,8 +6014,8 @@
       <c r="I7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
       <c r="M7" s="9" t="s">
         <v>14</v>
       </c>
@@ -5827,7 +6060,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="57"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="2"/>
@@ -5856,11 +6089,11 @@
       <c r="M9" s="2">
         <v>8</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="36">
         <v>44</v>
       </c>
-      <c r="O9" s="57">
-        <f t="shared" ref="O9:O20" si="0">IF(M9=0,0,(N9-M9)/M9)</f>
+      <c r="O9" s="35">
+        <f t="shared" ref="O9:O10" si="0">IF(M9=0,0,(N9-M9)/M9)</f>
         <v>4.5</v>
       </c>
       <c r="P9" s="2"/>
@@ -5894,10 +6127,10 @@
       <c r="M10" s="2">
         <v>8</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="36">
         <v>33</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="35">
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
@@ -5921,21 +6154,21 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="57"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="6"/>
@@ -5962,7 +6195,7 @@
       <c r="N12" s="2">
         <v>4</v>
       </c>
-      <c r="O12" s="57"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="28">
         <f t="shared" si="1"/>
@@ -5993,7 +6226,7 @@
       <c r="N13" s="2">
         <v>29</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="28">
         <f t="shared" si="1"/>
@@ -6022,7 +6255,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="57"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="2"/>
@@ -6052,7 +6285,7 @@
       <c r="N15" s="2">
         <v>8</v>
       </c>
-      <c r="O15" s="57"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="28">
         <f t="shared" si="1"/>
@@ -6083,7 +6316,7 @@
       <c r="N16" s="2">
         <v>13</v>
       </c>
-      <c r="O16" s="57"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="28">
         <f t="shared" si="1"/>
@@ -6114,7 +6347,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="57"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="28">
         <f t="shared" si="1"/>
@@ -6145,7 +6378,7 @@
       <c r="N18" s="2">
         <v>8</v>
       </c>
-      <c r="O18" s="57"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="28">
         <f t="shared" si="1"/>
@@ -6176,7 +6409,7 @@
       <c r="N19" s="2">
         <v>9</v>
       </c>
-      <c r="O19" s="57"/>
+      <c r="O19" s="35"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="28">
         <f t="shared" si="1"/>
@@ -6203,7 +6436,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="57"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="2"/>
@@ -6256,7 +6489,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
@@ -6268,7 +6501,7 @@
       </c>
       <c r="J22" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="2"/>
@@ -6290,7 +6523,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11">
         <f>SUM(Q8:Q21)</f>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
